--- a/medicine/Mort/Parc_mémorial_de_la_Première_Guerre_mondiale/Parc_mémorial_de_la_Première_Guerre_mondiale.xlsx
+++ b/medicine/Mort/Parc_mémorial_de_la_Première_Guerre_mondiale/Parc_mémorial_de_la_Première_Guerre_mondiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_m%C3%A9morial_de_la_Premi%C3%A8re_Guerre_mondiale</t>
+          <t>Parc_mémorial_de_la_Première_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc mémorial de la Première Guerre mondiale est un ancien cimetière situé à Moscou en Russie. 
-Le cimetière a été ouvert en 1915 et compte alors des milliers de monticules de terres alignés. Sur 40 hectares sont ainsi enterrés des soldats morts durant la Première Guerre mondiale. En 1932, Staline fait démolir le cimetière pour y construire un parc, ne gardant qu'une tombe, celle de Sergueï Schlikhter, fils d'un commissaire du peuple. Sur les anciennes sépultures sont construits des immeubles, des rues et même un cinéma. En 2004, après la chute de l'URSS, le cimetière a été rénové, devenant un parc commémoratif, doté de plusieurs monuments, croix et stèles, organisés de façon hétéroclite[1].
+Le cimetière a été ouvert en 1915 et compte alors des milliers de monticules de terres alignés. Sur 40 hectares sont ainsi enterrés des soldats morts durant la Première Guerre mondiale. En 1932, Staline fait démolir le cimetière pour y construire un parc, ne gardant qu'une tombe, celle de Sergueï Schlikhter, fils d'un commissaire du peuple. Sur les anciennes sépultures sont construits des immeubles, des rues et même un cinéma. En 2004, après la chute de l'URSS, le cimetière a été rénové, devenant un parc commémoratif, doté de plusieurs monuments, croix et stèles, organisés de façon hétéroclite.
 </t>
         </is>
       </c>
